--- a/cloud_report/Escenario 1/Analisis.xlsx
+++ b/cloud_report/Escenario 1/Analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{402E21E4-1ED7-CB42-8794-83318F7DFFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D43C5FB-3800-A642-B401-C90E8367BA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="18000" firstSheet="6" activeTab="10" xr2:uid="{81FA6220-A2C5-0242-BDA7-4E3892EEDA5C}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="14280" windowHeight="16140" firstSheet="6" activeTab="10" xr2:uid="{81FA6220-A2C5-0242-BDA7-4E3892EEDA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="output1" sheetId="18" r:id="rId1"/>
@@ -82,7 +82,7 @@
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=output5;Extended Properties=&quot;&quot;" command="SELECT * FROM [output5]"/>
   </connection>
   <connection id="10" xr16:uid="{64EEABF5-5994-8543-815E-6828288A9095}" name="output1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration1/output1.csv" decimal="," thousands=".">
+    <textPr sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration1/output1.csv" decimal="," thousands=".">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -94,7 +94,7 @@
     </textPr>
   </connection>
   <connection id="11" xr16:uid="{54E0A0D2-1DA4-F44F-BCDE-C72D5CE14FA7}" name="output2" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration2/output2.csv" decimal="," thousands=".">
+    <textPr sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration2/output2.csv" decimal="," thousands=".">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -106,7 +106,7 @@
     </textPr>
   </connection>
   <connection id="12" xr16:uid="{3D116814-24C7-014C-B61E-AB0A877AAECE}" name="output3" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration3/output3.csv" decimal="," thousands=".">
+    <textPr sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration3/output3.csv" decimal="," thousands=".">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -118,7 +118,7 @@
     </textPr>
   </connection>
   <connection id="13" xr16:uid="{751589A2-4E35-044F-A2B9-7B3B21C4A5C8}" name="output4" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration4/output4.csv" decimal="," thousands=".">
+    <textPr sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration4/output4.csv" decimal="," thousands=".">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -130,7 +130,7 @@
     </textPr>
   </connection>
   <connection id="14" xr16:uid="{8A6DA9F8-688A-8042-BF2D-46252EB023B1}" name="output5" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration5/output5.csv" decimal="," thousands=".">
+    <textPr sourceFile="/Users/estefaniafajardorojas/Documents/Documentos - MacBook Air de Estefania/Software_nube/DSN-Equipo-ERLJ/cloud_report/Escenario 1/iteration5/output5.csv" decimal="," thousands=".">
       <textFields count="6">
         <textField/>
         <textField/>
@@ -2061,9 +2061,6 @@
     <t>Sun Nov 20 23:11:08 2022</t>
   </si>
   <si>
-    <t>0ms</t>
-  </si>
-  <si>
     <t>31887ms</t>
   </si>
   <si>
@@ -2200,6 +2197,9 @@
   </si>
   <si>
     <t>  </t>
+  </si>
+  <si>
+    <t>1313ms</t>
   </si>
 </sst>
 </file>
@@ -3918,8 +3918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50A18CFE-7A2A-4E78-82C3-D0CA1D1374FD}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5994,7 +5994,7 @@
         <v>6</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -6010,7 +6010,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -6040,7 +6040,7 @@
   <dimension ref="A3:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:F9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6126,7 +6126,7 @@
         <v>31168</v>
       </c>
       <c r="C5" s="10">
-        <v>0</v>
+        <v>1313</v>
       </c>
       <c r="D5" s="10">
         <v>4402</v>
@@ -6188,7 +6188,7 @@
         <v>31887</v>
       </c>
       <c r="C7" s="10">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="D7" s="10">
         <v>8776</v>
@@ -6219,7 +6219,7 @@
         <v>31175</v>
       </c>
       <c r="C8" s="10">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="D8" s="10">
         <v>1157</v>
@@ -6252,7 +6252,7 @@
       </c>
       <c r="C9" s="10">
         <f t="shared" ref="C9:F9" si="0">+AVERAGE(C4:C8)</f>
-        <v>372.2</v>
+        <v>1155</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
@@ -6267,7 +6267,7 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H9" s="10"/>
       <c r="I9" s="6"/>
@@ -6298,7 +6298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{237B7831-39F9-D54F-AA56-90F098C5603A}">
   <dimension ref="B3:L10"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -6374,8 +6374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D6A033-E084-44D0-93B4-AB319E4FD369}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F133" sqref="F133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10419,8 +10419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A969372E-0BD5-4EF3-BE1B-072CDE6ED18A}">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10458,8 +10458,8 @@
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="4">
-        <v>0</v>
+      <c r="K6" s="4" t="s">
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -16618,8 +16618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD0917C-7BA3-43E0-BA30-A62E1C941AD6}">
   <dimension ref="A1:F401"/>
   <sheetViews>
-    <sheetView topLeftCell="A361" workbookViewId="0">
-      <selection activeCell="F401" sqref="F401"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F112" sqref="F2:F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24663,8 +24663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE8E057-9D8A-EF4E-BF76-AD87C43AAA4C}">
   <dimension ref="B2:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24694,15 +24694,15 @@
         <v>6</v>
       </c>
       <c r="K5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="19" x14ac:dyDescent="0.25">
       <c r="J6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K6" t="s">
-        <v>589</v>
+      <c r="K6">
+        <v>1444</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -24710,7 +24710,7 @@
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="19" x14ac:dyDescent="0.25">
@@ -24739,8 +24739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA357732-9765-A544-8D37-770A0A27E6B3}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="F201" sqref="F201"/>
+    <sheetView topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="F178" sqref="F178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24774,7 +24774,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2">
         <v>1669004275</v>
@@ -24794,7 +24794,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B3">
         <v>1669004425</v>
@@ -24814,7 +24814,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B4">
         <v>1669004244</v>
@@ -24834,7 +24834,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B5">
         <v>1669004303</v>
@@ -24854,7 +24854,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B6">
         <v>1669004425</v>
@@ -24874,7 +24874,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B7">
         <v>1669004368</v>
@@ -24894,7 +24894,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B8">
         <v>1669004335</v>
@@ -24914,7 +24914,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9">
         <v>1669004424</v>
@@ -24934,7 +24934,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B10">
         <v>1669004397</v>
@@ -24954,7 +24954,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11">
         <v>1669004304</v>
@@ -24974,7 +24974,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B12">
         <v>1669004395</v>
@@ -24994,7 +24994,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B13">
         <v>1669004244</v>
@@ -25014,7 +25014,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B14">
         <v>1669004334</v>
@@ -25034,7 +25034,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B15">
         <v>1669004427</v>
@@ -25054,7 +25054,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B16">
         <v>1669004335</v>
@@ -25074,7 +25074,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B17">
         <v>1669004428</v>
@@ -25094,7 +25094,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B18">
         <v>1669004306</v>
@@ -25114,7 +25114,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B19">
         <v>1669004334</v>
@@ -25134,7 +25134,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B20">
         <v>1669004335</v>
@@ -25154,7 +25154,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B21">
         <v>1669004425</v>
@@ -25174,7 +25174,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B22">
         <v>1669004429</v>
@@ -25194,7 +25194,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B23">
         <v>1669004213</v>
@@ -25214,7 +25214,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B24">
         <v>1669004365</v>
@@ -25234,7 +25234,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B25">
         <v>1669004337</v>
@@ -25254,7 +25254,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B26">
         <v>1669004243</v>
@@ -25274,7 +25274,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B27">
         <v>1669004213</v>
@@ -25294,7 +25294,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B28">
         <v>1669004304</v>
@@ -25314,7 +25314,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B29">
         <v>1669004243</v>
@@ -25334,7 +25334,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B30">
         <v>1669004425</v>
@@ -25354,7 +25354,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B31">
         <v>1669004364</v>
@@ -25374,7 +25374,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B32">
         <v>1669004274</v>
@@ -25394,7 +25394,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B33">
         <v>1669004308</v>
@@ -25414,7 +25414,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B34">
         <v>1669004334</v>
@@ -25434,7 +25434,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B35">
         <v>1669004305</v>
@@ -25454,7 +25454,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B36">
         <v>1669004397</v>
@@ -25474,7 +25474,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B37">
         <v>1669004213</v>
@@ -25494,7 +25494,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B38">
         <v>1669004244</v>
@@ -25514,7 +25514,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B39">
         <v>1669004336</v>
@@ -25534,7 +25534,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B40">
         <v>1669004273</v>
@@ -25554,7 +25554,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B41">
         <v>1669004213</v>
@@ -25574,7 +25574,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B42">
         <v>1669004367</v>
@@ -25594,7 +25594,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B43">
         <v>1669004243</v>
@@ -25614,7 +25614,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B44">
         <v>1669004333</v>
@@ -25634,7 +25634,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B45">
         <v>1669004243</v>
@@ -25654,7 +25654,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B46">
         <v>1669004394</v>
@@ -25674,7 +25674,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B47">
         <v>1669004274</v>
@@ -25694,7 +25694,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B48">
         <v>1669004243</v>
@@ -25714,7 +25714,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B49">
         <v>1669004396</v>
@@ -25734,7 +25734,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B50">
         <v>1669004213</v>
@@ -25754,7 +25754,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B51">
         <v>1669004243</v>
@@ -25774,7 +25774,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B52">
         <v>1669004398</v>
@@ -25794,7 +25794,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B53">
         <v>1669004426</v>
@@ -25814,7 +25814,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B54">
         <v>1669004397</v>
@@ -25834,7 +25834,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B55">
         <v>1669004274</v>
@@ -25854,7 +25854,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B56">
         <v>1669004397</v>
@@ -25874,7 +25874,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B57">
         <v>1669004334</v>
@@ -25894,7 +25894,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B58">
         <v>1669004274</v>
@@ -25914,7 +25914,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B59">
         <v>1669004273</v>
@@ -25934,7 +25934,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B60">
         <v>1669004395</v>
@@ -25954,7 +25954,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B61">
         <v>1669004396</v>
@@ -25974,7 +25974,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B62">
         <v>1669004395</v>
@@ -25994,7 +25994,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B63">
         <v>1669004394</v>
@@ -26014,7 +26014,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B64">
         <v>1669004213</v>
@@ -26034,7 +26034,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B65">
         <v>1669004424</v>
@@ -26054,7 +26054,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B66">
         <v>1669004364</v>
@@ -26074,7 +26074,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B67">
         <v>1669004365</v>
@@ -26094,7 +26094,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B68">
         <v>1669004304</v>
@@ -26114,7 +26114,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B69">
         <v>1669004363</v>
@@ -26134,7 +26134,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B70">
         <v>1669004273</v>
@@ -26154,7 +26154,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B71">
         <v>1669004369</v>
@@ -26174,7 +26174,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B72">
         <v>1669004395</v>
@@ -26194,7 +26194,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B73">
         <v>1669004398</v>
@@ -26214,7 +26214,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B74">
         <v>1669004213</v>
@@ -26234,7 +26234,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B75">
         <v>1669004305</v>
@@ -26254,7 +26254,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B76">
         <v>1669004213</v>
@@ -26274,7 +26274,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B77">
         <v>1669004364</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B78">
         <v>1669004364</v>
@@ -26314,7 +26314,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B79">
         <v>1669004273</v>
@@ -26334,7 +26334,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B80">
         <v>1669004396</v>
@@ -26354,7 +26354,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B81">
         <v>1669004244</v>
@@ -26374,7 +26374,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B82">
         <v>1669004336</v>
@@ -26394,7 +26394,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B83">
         <v>1669004395</v>
@@ -26414,7 +26414,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B84">
         <v>1669004245</v>
@@ -26434,7 +26434,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B85">
         <v>1669004244</v>
@@ -26454,7 +26454,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B86">
         <v>1669004395</v>
@@ -26474,7 +26474,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B87">
         <v>1669004213</v>
@@ -26494,7 +26494,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B88">
         <v>1669004243</v>
@@ -26514,7 +26514,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B89">
         <v>1669004243</v>
@@ -26534,7 +26534,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B90">
         <v>1669004366</v>
@@ -26554,7 +26554,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B91">
         <v>1669004305</v>
@@ -26574,7 +26574,7 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B92">
         <v>1669004426</v>
@@ -26594,7 +26594,7 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B93">
         <v>1669004366</v>
@@ -26614,7 +26614,7 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B94">
         <v>1669004399</v>
@@ -26634,7 +26634,7 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B95">
         <v>1669004364</v>
@@ -26654,7 +26654,7 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B96">
         <v>1669004243</v>
@@ -26674,7 +26674,7 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B97">
         <v>1669004304</v>
@@ -26694,7 +26694,7 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B98">
         <v>1669004364</v>
@@ -26714,7 +26714,7 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B99">
         <v>1669004364</v>
@@ -26734,7 +26734,7 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B100">
         <v>1669004275</v>
@@ -26754,7 +26754,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B101">
         <v>1669004427</v>
@@ -26774,7 +26774,7 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B102">
         <v>1669004304</v>
@@ -26794,7 +26794,7 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B103">
         <v>1669004427</v>
@@ -26814,7 +26814,7 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B104">
         <v>1669004303</v>
@@ -26834,7 +26834,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B105">
         <v>1669004304</v>
@@ -26854,7 +26854,7 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B106">
         <v>1669004366</v>
@@ -26874,7 +26874,7 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B107">
         <v>1669004334</v>
@@ -26894,7 +26894,7 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B108">
         <v>1669004425</v>
@@ -26914,7 +26914,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B109">
         <v>1669004244</v>
@@ -26934,7 +26934,7 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B110">
         <v>1669004428</v>
@@ -26954,7 +26954,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B111">
         <v>1669004273</v>
@@ -26974,7 +26974,7 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B112">
         <v>1669004273</v>
@@ -26994,7 +26994,7 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B113">
         <v>1669004274</v>
@@ -27014,7 +27014,7 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B114">
         <v>1669004333</v>
@@ -27034,7 +27034,7 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B115">
         <v>1669004365</v>
@@ -27054,7 +27054,7 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B116">
         <v>1669004397</v>
@@ -27074,7 +27074,7 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B117">
         <v>1669004243</v>
@@ -27094,7 +27094,7 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B118">
         <v>1669004304</v>
@@ -27114,7 +27114,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B119">
         <v>1669004425</v>
@@ -27134,7 +27134,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B120">
         <v>1669004428</v>
@@ -27154,7 +27154,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B121">
         <v>1669004426</v>
@@ -27174,7 +27174,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B122">
         <v>1669004395</v>
@@ -27194,7 +27194,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B123">
         <v>1669004400</v>
@@ -27214,7 +27214,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B124">
         <v>1669004243</v>
@@ -27234,7 +27234,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B125">
         <v>1669004304</v>
@@ -27254,7 +27254,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B126">
         <v>1669004307</v>
@@ -27274,7 +27274,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B127">
         <v>1669004394</v>
@@ -27294,7 +27294,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B128">
         <v>1669004365</v>
@@ -27314,7 +27314,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B129">
         <v>1669004213</v>
@@ -27334,7 +27334,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B130">
         <v>1669004305</v>
@@ -27354,7 +27354,7 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B131">
         <v>1669004305</v>
@@ -27374,7 +27374,7 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B132">
         <v>1669004427</v>
@@ -27394,7 +27394,7 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B133">
         <v>1669004213</v>
@@ -27414,7 +27414,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B134">
         <v>1669004365</v>
@@ -27434,7 +27434,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B135">
         <v>1669004243</v>
@@ -27454,7 +27454,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B136">
         <v>1669004367</v>
@@ -27474,7 +27474,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B137">
         <v>1669004273</v>
@@ -27494,7 +27494,7 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B138">
         <v>1669004213</v>
@@ -27514,7 +27514,7 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B139">
         <v>1669004244</v>
@@ -27534,7 +27534,7 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B140">
         <v>1669004395</v>
@@ -27554,7 +27554,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B141">
         <v>1669004243</v>
@@ -27574,7 +27574,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B142">
         <v>1669004427</v>
@@ -27594,7 +27594,7 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B143">
         <v>1669004274</v>
@@ -27614,7 +27614,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B144">
         <v>1669004274</v>
@@ -27634,7 +27634,7 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B145">
         <v>1669004367</v>
@@ -27654,7 +27654,7 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B146">
         <v>1669004369</v>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B147">
         <v>1669004366</v>
@@ -27694,7 +27694,7 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B148">
         <v>1669004303</v>
@@ -27714,7 +27714,7 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B149">
         <v>1669004336</v>
@@ -27734,7 +27734,7 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B150">
         <v>1669004367</v>
@@ -27754,7 +27754,7 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B151">
         <v>1669004243</v>
@@ -27774,7 +27774,7 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B152">
         <v>1669004337</v>
@@ -27794,7 +27794,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B153">
         <v>1669004426</v>
@@ -27814,7 +27814,7 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B154">
         <v>1669004213</v>
@@ -27834,7 +27834,7 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B155">
         <v>1669004213</v>
@@ -27854,7 +27854,7 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B156">
         <v>1669004334</v>
@@ -27874,7 +27874,7 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B157">
         <v>1669004303</v>
@@ -27894,7 +27894,7 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B158">
         <v>1669004338</v>
@@ -27914,7 +27914,7 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B159">
         <v>1669004275</v>
@@ -27934,7 +27934,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B160">
         <v>1669004305</v>
@@ -27954,7 +27954,7 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B161">
         <v>1669004213</v>
@@ -27974,7 +27974,7 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B162">
         <v>1669004306</v>
@@ -27994,7 +27994,7 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B163">
         <v>1669004397</v>
@@ -28014,7 +28014,7 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B164">
         <v>1669004425</v>
@@ -28034,7 +28034,7 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B165">
         <v>1669004336</v>
@@ -28054,7 +28054,7 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B166">
         <v>1669004243</v>
@@ -28074,7 +28074,7 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B167">
         <v>1669004213</v>
@@ -28094,7 +28094,7 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B168">
         <v>1669004334</v>
@@ -28114,7 +28114,7 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B169">
         <v>1669004334</v>
@@ -28134,7 +28134,7 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B170">
         <v>1669004273</v>
@@ -28154,7 +28154,7 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B171">
         <v>1669004427</v>
@@ -28174,7 +28174,7 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B172">
         <v>1669004213</v>
@@ -28194,7 +28194,7 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B173">
         <v>1669004335</v>
@@ -28214,7 +28214,7 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B174">
         <v>1669004213</v>
@@ -28234,7 +28234,7 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B175">
         <v>1669004213</v>
@@ -28254,7 +28254,7 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B176">
         <v>1669004274</v>
@@ -28274,7 +28274,7 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B177">
         <v>1669004213</v>
@@ -28294,7 +28294,7 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B178">
         <v>1669004305</v>
@@ -28314,7 +28314,7 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B179">
         <v>1669004274</v>
@@ -28334,7 +28334,7 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B180">
         <v>1669004213</v>
@@ -28354,7 +28354,7 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B181">
         <v>1669004305</v>
@@ -28374,7 +28374,7 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B182">
         <v>1669004274</v>
@@ -28394,7 +28394,7 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B183">
         <v>1669004334</v>
@@ -28414,7 +28414,7 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B184">
         <v>1669004335</v>
@@ -28434,7 +28434,7 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B185">
         <v>1669004213</v>
@@ -28454,7 +28454,7 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B186">
         <v>1669004213</v>
@@ -28474,7 +28474,7 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B187">
         <v>1669004275</v>
@@ -28494,7 +28494,7 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B188">
         <v>1669004213</v>
@@ -28514,7 +28514,7 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B189">
         <v>1669004244</v>
@@ -28534,7 +28534,7 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B190">
         <v>1669004336</v>
@@ -28554,7 +28554,7 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B191">
         <v>1669004276</v>
@@ -28574,7 +28574,7 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B192">
         <v>1669004273</v>
@@ -28594,7 +28594,7 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B193">
         <v>1669004210</v>
@@ -28614,7 +28614,7 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B194">
         <v>1669004364</v>
@@ -28634,7 +28634,7 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B195">
         <v>1669004334</v>
@@ -28654,7 +28654,7 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B196">
         <v>1669004213</v>
@@ -28674,7 +28674,7 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B197">
         <v>1669004304</v>
@@ -28694,7 +28694,7 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B198">
         <v>1669004394</v>
@@ -28714,7 +28714,7 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B199">
         <v>1669004274</v>
@@ -28734,7 +28734,7 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B200">
         <v>1669004424</v>
@@ -28754,7 +28754,7 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B201">
         <v>1669004243</v>
